--- a/Runs/Final_PDI1_RLU2/HEK293/IV_Validation/Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/HEK293/IV_Validation/Validation_set.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/lcheng33_jh_edu/Documents/Documents/Academic/1. JHU/1. Research/1. Projects/1. LNPs/0. ML LNP/ml_lnp_manuscript/Runs/Final_PDI1_RLU2/HEK293/IV_Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF8730594663792211597298F46181E127" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE613F6B-79DA-4D99-8310-57A3B9AD928E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>Helper_lipid</t>
+  </si>
+  <si>
+    <t>P_charged_centers</t>
+  </si>
+  <si>
+    <t>cLogP</t>
+  </si>
+  <si>
+    <t>Hbond_D</t>
+  </si>
+  <si>
+    <t>Hbond_A</t>
+  </si>
+  <si>
+    <t>Double_bonds</t>
+  </si>
+  <si>
+    <t>NP_ratio</t>
+  </si>
+  <si>
+    <t>Chol_DMG-PEG_ratio</t>
+  </si>
+  <si>
+    <t>Dlin-MC3+Helper lipid percentage</t>
+  </si>
+  <si>
+    <t>Dlin-MC3_Helper lipid_ratio</t>
+  </si>
+  <si>
+    <t>Normalized_y</t>
+  </si>
+  <si>
+    <t>RLU_y</t>
+  </si>
+  <si>
+    <t>14PA</t>
+  </si>
+  <si>
+    <t>18PG</t>
+  </si>
+  <si>
+    <t>DDAB</t>
+  </si>
+  <si>
+    <t>DOPE</t>
+  </si>
+  <si>
+    <t>DOTAP</t>
+  </si>
+  <si>
+    <t>DSPC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,514 +435,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Validation Formula label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Helper_lipid</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P_charged_centers</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cLogP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hbond_D</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Hbond_A</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Double_bonds</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>NP_ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Chol_DMG-PEG_ratio</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Dlin-MC3+Helper lipid percentage</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Dlin-MC3_Helper lipid_ratio</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Normalized_y</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>RLU_y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>5208</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14PA</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.8502</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>11.850199999999999</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>40</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>25</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>0.311698091520484</v>
       </c>
-      <c r="M2" t="n">
-        <v>5.357611841858654</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="M2">
+        <v>5.3576118418586542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1045</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18PG</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.3028</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>9.3027999999999995</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>70</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>55</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>35</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.9257246733727932</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11.97190618157173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="L3">
+        <v>0.92572467337279318</v>
+      </c>
+      <c r="M3">
+        <v>11.971906181571731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>199</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>18PG</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.3028</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9.3027999999999995</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>350</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>35</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.2484103163016508</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.675875927201383</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="L4">
+        <v>0.24841031630165081</v>
+      </c>
+      <c r="M4">
+        <v>4.6758759272013828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>744</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>18PG</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.3028</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>9.3027999999999995</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>40</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>165</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.2008310781689013</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5">
+        <v>0.20083107816890131</v>
+      </c>
+      <c r="M5">
         <v>4.163352374035405</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5989</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DDAB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>12.73</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>70</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>55</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>0.9221813511335466</v>
       </c>
-      <c r="M6" t="n">
-        <v>11.93373751441056</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="M6">
+        <v>11.933737514410559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1381</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DOPE</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>70</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>55</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>7</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.8970663348771239</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.66319855929638</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="L7">
+        <v>0.89706633487712395</v>
+      </c>
+      <c r="M7">
+        <v>11.663198559296379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1749</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DOPE</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>70</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>75</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.8585155781616386</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11.24792980795717</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="L8">
+        <v>0.85851557816163859</v>
+      </c>
+      <c r="M8">
+        <v>11.247929807957171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1193</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DOPE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>70</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>65</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.8970663348771239</v>
-      </c>
-      <c r="M9" t="n">
-        <v>11.66319855929638</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="L9">
+        <v>0.89706633487712395</v>
+      </c>
+      <c r="M9">
+        <v>11.663198559296379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2392</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DOTAP</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>12.515000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>40</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>65</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>35</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.3743441507131544</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.032435191482098</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="L10">
+        <v>0.37434415071315441</v>
+      </c>
+      <c r="M10">
+        <v>6.0324351914820982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>4228</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DSPC</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>6.12</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>40</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.2683979678292115</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4.891182909456267</v>
+      <c r="L11">
+        <v>0.26839796782921149</v>
+      </c>
+      <c r="M11">
+        <v>4.8911829094562673</v>
       </c>
     </row>
   </sheetData>
